--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6EC1A-6F93-48B6-B128-FB737C84AE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348338D-C60E-45A6-9099-9D9FE8FF05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="60" yWindow="10" windowWidth="18940" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -726,6 +726,8 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1113,8 +1115,8 @@
   <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA40" sqref="AA40"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,7 +1263,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M2" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N2" s="6">
         <v>0.03</v>
@@ -1493,6 +1495,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="11">
+        <f>2+2</f>
         <v>4</v>
       </c>
       <c r="V4" s="2">
@@ -1506,31 +1509,31 @@
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>25.567499999999999</v>
+        <v>23.967500000000001</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="2"/>
-        <v>8.6812499999999986</v>
+        <v>8.0812499999999989</v>
       </c>
       <c r="AA4" s="12">
         <v>0.5</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="3"/>
-        <v>12.78375</v>
+        <v>11.983750000000001</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="4"/>
-        <v>21.464999999999996</v>
+        <v>20.064999999999998</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="5"/>
-        <v>47.537999999999997</v>
+        <v>44.478000000000009</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4">
         <f t="shared" si="6"/>
-        <v>34.248749999999994</v>
+        <v>32.048749999999998</v>
       </c>
       <c r="AT4" s="10"/>
     </row>
@@ -1605,36 +1608,36 @@
       <c r="W5" s="2">
         <v>12</v>
       </c>
-      <c r="X5" s="9">
-        <v>0</v>
+      <c r="X5" s="17">
+        <v>0.1</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13.2</v>
       </c>
       <c r="AA5" s="12">
         <v>0.25</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>26.400000000000002</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="5"/>
-        <v>61.2</v>
+        <v>67.320000000000007</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>48.400000000000006</v>
       </c>
       <c r="AT5" s="10"/>
     </row>
@@ -1674,7 +1677,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M6" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N6" s="6">
         <v>0.03</v>
@@ -1706,36 +1709,36 @@
       <c r="W6" s="8">
         <v>0</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="AA6" s="5">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.60000000000000009</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.0600000000000005</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="AT6" s="10"/>
     </row>
@@ -2402,7 +2405,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M13" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N13" s="6">
         <v>0.03</v>
@@ -2434,7 +2437,7 @@
       <c r="W13" s="8">
         <v>0</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y13" s="2">
@@ -2740,8 +2743,8 @@
         <v>0</v>
       </c>
       <c r="U16" s="11">
-        <f>5+1</f>
-        <v>6</v>
+        <f>5+-5</f>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
         <v>56</v>
@@ -2922,7 +2925,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M18" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N18" s="6">
         <v>0.03</v>
@@ -2954,7 +2957,7 @@
       <c r="W18" s="8">
         <v>0</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y18" s="2">
@@ -3257,8 +3260,9 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>5</v>
+      <c r="U21" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V21" s="2">
         <v>39.4</v>
@@ -3465,8 +3469,9 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>7</v>
+      <c r="U23" s="11">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -3673,8 +3678,9 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25">
-        <v>7</v>
+      <c r="U25" s="11">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V25" s="2">
         <v>5</v>
@@ -3881,8 +3887,9 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27">
-        <v>7</v>
+      <c r="U27" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V27">
         <v>36</v>
@@ -4167,7 +4174,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M30" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N30" s="6">
         <v>0.03</v>
@@ -4199,7 +4206,7 @@
       <c r="W30" s="8">
         <v>0</v>
       </c>
-      <c r="X30" s="6" t="s">
+      <c r="X30" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y30" s="2">
@@ -5416,7 +5423,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N42" s="6">
         <v>0.03</v>
@@ -5448,7 +5455,7 @@
       <c r="W42" s="8">
         <v>0</v>
       </c>
-      <c r="X42" s="6" t="s">
+      <c r="X42" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y42" s="2">
@@ -6661,7 +6668,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M54" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N54" s="6">
         <v>0.03</v>
@@ -6693,7 +6700,7 @@
       <c r="W54" s="8">
         <v>0</v>
       </c>
-      <c r="X54" s="6" t="s">
+      <c r="X54" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y54" s="2">
@@ -7074,7 +7081,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M58" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N58" s="6">
         <v>0.03</v>
@@ -7106,7 +7113,7 @@
       <c r="W58" s="8">
         <v>0</v>
       </c>
-      <c r="X58" s="6" t="s">
+      <c r="X58" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y58" s="2">
@@ -7695,7 +7702,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="M64" s="6">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="N64" s="6">
         <v>0.03</v>
@@ -7762,7 +7769,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X3:X5 X7:X12 X14:X17 X19:X29 X31:X41 X43:X53 X55:X57 X59:X63">
+  <conditionalFormatting sqref="X3:X4 X7:X12 X14:X17 X19:X29 X31:X41 X43:X53 X55:X57 X59:X63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A3="Travée"</formula>
     </cfRule>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8348338D-C60E-45A6-9099-9D9FE8FF05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657EF4F7-8F25-4395-9CF3-C41ACF2AE597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="10" windowWidth="18940" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19410" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
   <dimension ref="A1:AT64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U28" sqref="U28"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4405,8 +4405,9 @@
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32">
-        <v>5</v>
+      <c r="U32" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V32">
         <v>88.5</v>
@@ -4509,8 +4510,9 @@
       <c r="T33">
         <v>0</v>
       </c>
-      <c r="U33">
-        <v>7</v>
+      <c r="U33" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V33">
         <v>43</v>
@@ -4613,8 +4615,9 @@
       <c r="T34">
         <v>0</v>
       </c>
-      <c r="U34">
-        <v>5</v>
+      <c r="U34" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V34">
         <v>77.5</v>
@@ -4717,8 +4720,9 @@
       <c r="T35">
         <v>0</v>
       </c>
-      <c r="U35">
-        <v>7</v>
+      <c r="U35" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4925,8 +4929,9 @@
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>7</v>
+      <c r="U37" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V37">
         <v>4</v>
@@ -4939,31 +4944,31 @@
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-1.7749999999999995</v>
       </c>
       <c r="Z37" s="2">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>4.5374999999999996</v>
       </c>
       <c r="AA37" s="5">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>-1.7749999999999995</v>
       </c>
       <c r="AC37" s="2">
         <f t="shared" si="24"/>
-        <v>6.6</v>
+        <v>4.5374999999999996</v>
       </c>
       <c r="AD37" s="4">
         <f t="shared" si="25"/>
-        <v>15.299999999999999</v>
+        <v>4.41</v>
       </c>
       <c r="AE37" s="4"/>
       <c r="AF37">
         <f t="shared" si="26"/>
-        <v>10.6</v>
+        <v>2.7625000000000002</v>
       </c>
       <c r="AT37" s="10"/>
     </row>
@@ -5038,36 +5043,36 @@
       <c r="W38">
         <v>27.5</v>
       </c>
-      <c r="X38" s="9">
-        <v>0</v>
+      <c r="X38" s="14">
+        <v>0.15</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>88.55</v>
       </c>
       <c r="Z38" s="2">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>31.625</v>
       </c>
       <c r="AA38" s="5">
         <v>0.25</v>
       </c>
       <c r="AB38" s="2">
         <f t="shared" si="23"/>
-        <v>57.75</v>
+        <v>66.412499999999994</v>
       </c>
       <c r="AC38" s="2">
         <f t="shared" si="24"/>
-        <v>46.75</v>
+        <v>53.762500000000003</v>
       </c>
       <c r="AD38" s="4">
         <f t="shared" si="25"/>
-        <v>145.19999999999999</v>
+        <v>166.98000000000002</v>
       </c>
       <c r="AE38" s="4"/>
       <c r="AF38">
         <f t="shared" si="26"/>
-        <v>104.5</v>
+        <v>120.175</v>
       </c>
       <c r="AT38" s="10"/>
     </row>
@@ -5148,31 +5153,31 @@
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="1"/>
-        <v>38.5</v>
+        <v>23.1</v>
       </c>
       <c r="Z39" s="2">
         <f t="shared" si="2"/>
-        <v>15.4</v>
+        <v>10.025</v>
       </c>
       <c r="AA39" s="5">
         <v>0.5</v>
       </c>
       <c r="AB39" s="2">
         <f t="shared" si="23"/>
-        <v>19.25</v>
+        <v>11.55</v>
       </c>
       <c r="AC39" s="2">
         <f t="shared" si="24"/>
-        <v>34.65</v>
+        <v>21.575000000000003</v>
       </c>
       <c r="AD39" s="4">
         <f t="shared" si="25"/>
-        <v>75.075000000000003</v>
+        <v>46.222500000000004</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39">
         <f t="shared" si="26"/>
-        <v>53.9</v>
+        <v>33.125</v>
       </c>
       <c r="AT39" s="10"/>
     </row>
@@ -5231,8 +5236,8 @@
         <v>0.04</v>
       </c>
       <c r="R40" s="11">
-        <f>2+2</f>
-        <v>4</v>
+        <f>2+4</f>
+        <v>6</v>
       </c>
       <c r="S40">
         <v>2.9099999999999999E-5</v>
@@ -5241,8 +5246,8 @@
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f>7+1</f>
-        <v>8</v>
+        <f>(7+1)*0</f>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>77</v>
@@ -5251,15 +5256,15 @@
         <v>26.5</v>
       </c>
       <c r="X40" s="14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>96.25</v>
       </c>
       <c r="Z40" s="2">
         <f t="shared" si="2"/>
-        <v>26.5</v>
+        <v>33.125</v>
       </c>
       <c r="AA40" s="15">
         <v>1</v>
@@ -5270,16 +5275,16 @@
       </c>
       <c r="AC40" s="2">
         <f t="shared" si="24"/>
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AD40" s="4">
         <f t="shared" si="25"/>
-        <v>143.69999999999999</v>
+        <v>179.625</v>
       </c>
       <c r="AE40" s="4"/>
       <c r="AF40">
         <f t="shared" si="26"/>
-        <v>103.5</v>
+        <v>129.375</v>
       </c>
       <c r="AT40" s="10"/>
     </row>
@@ -5359,31 +5364,31 @@
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10.375</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>6.1875</v>
       </c>
       <c r="AA41" s="5">
         <v>0.5</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>5.1875</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="24"/>
-        <v>19.5</v>
+        <v>11.375</v>
       </c>
       <c r="AD41" s="4">
         <f t="shared" si="25"/>
-        <v>41.25</v>
+        <v>23.287500000000001</v>
       </c>
       <c r="AE41" s="4"/>
       <c r="AF41">
         <f t="shared" si="26"/>
-        <v>29.5</v>
+        <v>16.5625</v>
       </c>
       <c r="AT41" s="10"/>
     </row>
@@ -5654,8 +5659,9 @@
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44">
-        <v>5</v>
+      <c r="U44" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V44">
         <v>94</v>
@@ -5758,8 +5764,9 @@
       <c r="T45">
         <v>0</v>
       </c>
-      <c r="U45">
-        <v>7</v>
+      <c r="U45" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V45">
         <v>45</v>
@@ -6382,8 +6389,9 @@
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51">
-        <v>7</v>
+      <c r="U51" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V51">
         <v>35</v>
@@ -6899,8 +6907,9 @@
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56">
-        <v>5</v>
+      <c r="U56" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V56">
         <v>78.5</v>
@@ -7003,8 +7012,9 @@
       <c r="T57">
         <v>0</v>
       </c>
-      <c r="U57">
-        <v>7</v>
+      <c r="U57" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V57">
         <v>35.5</v>
@@ -7520,8 +7530,9 @@
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62">
-        <v>5</v>
+      <c r="U62" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V62">
         <v>75.5</v>
@@ -7624,8 +7635,9 @@
       <c r="T63">
         <v>0</v>
       </c>
-      <c r="U63">
-        <v>7</v>
+      <c r="U63" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V63">
         <v>32.5</v>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657EF4F7-8F25-4395-9CF3-C41ACF2AE597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD41D38-88EA-4FD4-BCC2-B3922B9EF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19410" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X41" sqref="X41"/>
+      <selection pane="topRight" activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5139,8 +5139,8 @@
         <v>0</v>
       </c>
       <c r="U39" s="11">
-        <f>7+1+4</f>
-        <v>12</v>
+        <f>7+1+4-6</f>
+        <v>6</v>
       </c>
       <c r="V39">
         <v>38.5</v>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD41D38-88EA-4FD4-BCC2-B3922B9EF949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913FA04-A084-4CF7-9A34-39FDE27B13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="53">
   <si>
     <t>fck</t>
   </si>
@@ -1112,11 +1112,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AT64"/>
+  <dimension ref="A1:AT65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U40" sqref="U40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1411,15 +1411,16 @@
         <v>16.537500000000001</v>
       </c>
       <c r="AA3" s="12">
-        <v>0.25</v>
+        <f>25%*0</f>
+        <v>0</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" ref="AB3:AB6" si="3">Y3*(1-AA3)</f>
-        <v>40.39875</v>
+        <v>53.865000000000002</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" ref="AC3:AC6" si="4">Y3*AA3 + Z3</f>
-        <v>30.003750000000004</v>
+        <v>16.537500000000001</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" ref="AD3:AD6" si="5">1.35*Y3+1.5*Z3</f>
@@ -1509,31 +1510,32 @@
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>23.967500000000001</v>
+        <v>20.767499999999998</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="2"/>
-        <v>8.0812499999999989</v>
+        <v>6.8812499999999996</v>
       </c>
       <c r="AA4" s="12">
-        <v>0.5</v>
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" si="3"/>
-        <v>11.983750000000001</v>
+        <v>20.767499999999998</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" si="4"/>
-        <v>20.064999999999998</v>
+        <v>6.8812499999999996</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="5"/>
-        <v>44.478000000000009</v>
+        <v>38.357999999999997</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4">
         <f t="shared" si="6"/>
-        <v>32.048749999999998</v>
+        <v>27.64875</v>
       </c>
       <c r="AT4" s="10"/>
     </row>
@@ -1609,41 +1611,42 @@
         <v>12</v>
       </c>
       <c r="X5" s="17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="1"/>
-        <v>35.200000000000003</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),V5+X5*V5,IF(A4&lt;A5,V5-X6*V6/2,IF(A5&lt;A6,V5-(X4*V4)/2,V5-(X6*V6+X4*V4)/2))),0)</f>
+        <v>41.6</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" si="2"/>
-        <v>13.2</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C5)),W5+X5*W5,IF(A4&lt;A5,W5-X6*W6/2,IF(A5&lt;A6,W5-(X4*W4)/2,W5-(X6*W6+X4*W4)/2))),0)</f>
+        <v>15.6</v>
       </c>
       <c r="AA5" s="12">
-        <v>0.25</v>
+        <f>25%*0</f>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" si="3"/>
-        <v>26.400000000000002</v>
+        <v>41.6</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>15.6</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="5"/>
-        <v>67.320000000000007</v>
+        <v>79.56</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5">
         <f t="shared" si="6"/>
-        <v>48.400000000000006</v>
+        <v>57.2</v>
       </c>
       <c r="AT5" s="10"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>IF(B6=B5,A5,A5+1)</f>
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1713,149 +1716,144 @@
         <v>52</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.60000000000000009</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C6)),W6+X6*W6,IF(A5&lt;A6,W6-X7*W7/2,IF(A6&lt;A7,W6-(X5*W5)/2,W6-(X7*W7+X5*W5)/2))),0)</f>
+        <v>-1.7999999999999998</v>
       </c>
       <c r="AA6" s="5">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" si="3"/>
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="5"/>
-        <v>-3.0600000000000005</v>
+        <v>-2.6999999999999997</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6">
         <f t="shared" si="6"/>
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="10"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF(B7=B6,A6,A6+1)</f>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>500</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>220000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>1576</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>1870</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0.24</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M7">
-        <v>5.6539999999999997E-4</v>
-      </c>
-      <c r="N7">
+      <c r="M7" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N7" s="6">
         <v>0.03</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7" s="2">
-        <v>20</v>
-      </c>
-      <c r="W7">
-        <v>7.5</v>
-      </c>
-      <c r="X7" s="9" t="s">
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="1"/>
-        <v>30.4</v>
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C7)),V7+X7*V7,IF(A6&lt;A7,V7-X8*V8/2,IF(A7&lt;A8,V7-(X6*V6)/2,V7-(X8*V8+X6*V6)/2))),0)</f>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="2"/>
-        <v>11.26</v>
-      </c>
-      <c r="AA7" s="3">
+        <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C7)),W7+X7*W7,IF(A6&lt;A7,W7-X8*W8/2,IF(A7&lt;A8,W7-(X6*W6)/2,W7-(X8*W8+X6*W6)/2))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
         <v>0</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" ref="AB7:AB13" si="7">Y7*(1-AA7)</f>
-        <v>30.4</v>
+        <f t="shared" ref="AB7:AB19" si="7">Y7*(1-AA7)</f>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC13" si="8">Y7*AA7 + Z7</f>
-        <v>11.26</v>
+        <f t="shared" ref="AC7:AC19" si="8">Y7*AA7 + Z7</f>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" ref="AD7:AD13" si="9">1.35*Y7+1.5*Z7</f>
-        <v>57.93</v>
+        <f t="shared" ref="AD7:AD65" si="9">1.35*Y7+1.5*Z7</f>
+        <v>0</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7">
-        <f t="shared" ref="AF7:AF13" si="10">AB7+AC7</f>
-        <v>41.66</v>
+        <f t="shared" ref="AF7:AF65" si="10">AB7+AC7</f>
+        <v>0</v>
       </c>
       <c r="AT7" s="10"/>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A8:A64" si="11">IF(B8=B7,A7,A7+1)</f>
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -1879,16 +1877,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L8">
         <v>2.2000000000000002</v>
       </c>
       <c r="M8">
-        <v>8.470000000000001E-4</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="N8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1909,57 +1907,57 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V8" s="2">
-        <v>65</v>
-      </c>
-      <c r="W8" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="X8" s="9">
-        <v>-0.32</v>
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>7.5</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="1"/>
-        <v>44.2</v>
+        <f t="shared" ref="Y8:Y65" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),V8+X8*V8,IF(A7&lt;A8,V8-X9*V9/2,IF(A8&lt;A9,V8-(X7*V7)/2,V8-(X9*V9+X7*V7)/2))),0)</f>
+        <v>30.4</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="2"/>
-        <v>15.98</v>
+        <f t="shared" ref="Z8:Z65" si="13">IFERROR(IF(ISNUMBER(SEARCH("Appui",C8)),W8+X8*W8,IF(A7&lt;A8,W8-X9*W9/2,IF(A8&lt;A9,W8-(X7*W7)/2,W8-(X9*W9+X7*W7)/2))),0)</f>
+        <v>11.26</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" si="7"/>
-        <v>44.2</v>
+        <v>30.4</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" si="8"/>
-        <v>15.98</v>
+        <v>11.26</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="9"/>
-        <v>83.640000000000015</v>
+        <v>57.93</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8">
         <f t="shared" si="10"/>
-        <v>60.180000000000007</v>
+        <v>41.66</v>
       </c>
       <c r="AT8" s="10"/>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -1983,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L9">
         <v>2.2000000000000002</v>
@@ -1992,7 +1990,7 @@
         <v>8.470000000000001E-4</v>
       </c>
       <c r="N9">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2012,58 +2010,59 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>2</v>
+      <c r="U9" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V9" s="2">
-        <v>27.2</v>
-      </c>
-      <c r="W9">
-        <v>10.8</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="W9" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="X9" s="9">
+        <v>-0.32</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="1"/>
-        <v>37.6</v>
+        <f t="shared" si="12"/>
+        <v>44.2</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="2"/>
-        <v>14.56</v>
+        <f t="shared" si="13"/>
+        <v>15.98</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" si="7"/>
-        <v>37.6</v>
+        <v>44.2</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" si="8"/>
-        <v>14.56</v>
+        <v>15.98</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="9"/>
-        <v>72.600000000000009</v>
+        <v>83.640000000000015</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9">
         <f t="shared" si="10"/>
-        <v>52.160000000000004</v>
+        <v>60.180000000000007</v>
       </c>
       <c r="AT9" s="10"/>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -2087,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L10">
         <v>2.2000000000000002</v>
       </c>
       <c r="M10">
-        <v>1.6940000000000002E-3</v>
+        <v>8.470000000000001E-4</v>
       </c>
       <c r="N10">
         <v>0.03</v>
@@ -2111,63 +2110,63 @@
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" s="2">
-        <v>38</v>
-      </c>
-      <c r="W10" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
+        <v>27.2</v>
+      </c>
+      <c r="W10">
+        <v>10.8</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f t="shared" si="12"/>
+        <v>37.6</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
+        <f t="shared" si="13"/>
+        <v>14.56</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>37.6</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" si="8"/>
-        <v>17.5</v>
+        <v>14.56</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="9"/>
-        <v>77.550000000000011</v>
+        <v>72.600000000000009</v>
       </c>
       <c r="AE10" s="4"/>
       <c r="AF10">
         <f t="shared" si="10"/>
-        <v>55.5</v>
+        <v>52.160000000000004</v>
       </c>
       <c r="AT10" s="10"/>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -2191,13 +2190,13 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
         <v>2.2000000000000002</v>
       </c>
       <c r="M11">
-        <v>1.1286E-3</v>
+        <v>1.6940000000000002E-3</v>
       </c>
       <c r="N11">
         <v>0.03</v>
@@ -2224,54 +2223,54 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="W11" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>52</v>
+        <v>17.5</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="2"/>
-        <v>4.3</v>
+        <f t="shared" si="13"/>
+        <v>17.5</v>
       </c>
       <c r="AA11" s="3">
         <v>0</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>38</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" si="8"/>
-        <v>4.3</v>
+        <v>17.5</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="9"/>
-        <v>11.175000000000001</v>
+        <v>77.550000000000011</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11">
         <f t="shared" si="10"/>
-        <v>7.8</v>
+        <v>55.5</v>
       </c>
       <c r="AT11" s="10"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -2295,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L12">
         <v>2.2000000000000002</v>
       </c>
       <c r="M12">
-        <v>8.470000000000001E-4</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="N12">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2328,263 +2327,262 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>10</v>
-      </c>
-      <c r="W12">
-        <v>8</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="W12" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>3.5</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="13"/>
+        <v>4.3</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="AD12" s="4">
         <f t="shared" si="9"/>
-        <v>25.5</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AT12" s="10"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>25</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>500</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="1">
         <v>220000</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>1576</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>1870</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.23</v>
+      </c>
+      <c r="L13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M13" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>0</v>
-      </c>
-      <c r="T13" s="6">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>52</v>
+      <c r="M13">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N13">
+        <v>0.06</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AA13" s="3">
         <v>0</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AT13" s="10"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>500</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>220000</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>1576</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>1870</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
         <v>0.2</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M14">
-        <v>5.53E-4</v>
-      </c>
-      <c r="N14">
+      <c r="M14" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N14" s="6">
         <v>0.03</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="11">
-        <f>5+1</f>
-        <v>6</v>
-      </c>
-      <c r="V14" s="2">
-        <v>37</v>
-      </c>
-      <c r="W14" s="2">
-        <v>15</v>
-      </c>
-      <c r="X14" s="9">
-        <v>0</v>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>0.25</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" ref="AB14:AB18" si="11">Y14*(1-AA14)</f>
-        <v>27.75</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" ref="AC14:AC18" si="12">Y14*AA14 + Z14</f>
-        <v>24.25</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" ref="AD14:AD18" si="13">1.35*Y14+1.5*Z14</f>
-        <v>72.45</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14">
-        <f t="shared" ref="AF14:AF18" si="14">AB14+AC14</f>
-        <v>52</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT14" s="10"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -2608,13 +2606,13 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
         <v>2.2000000000000002</v>
       </c>
       <c r="M15">
-        <v>5.6539999999999997E-4</v>
+        <v>5.53E-4</v>
       </c>
       <c r="N15">
         <v>0.03</v>
@@ -2637,58 +2635,60 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15">
-        <v>2</v>
+      <c r="U15" s="11">
+        <f>5+1</f>
+        <v>6</v>
       </c>
       <c r="V15" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="W15" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <f t="shared" si="12"/>
+        <v>37</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="2"/>
-        <v>11.5625</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="AA15" s="12">
-        <v>0.5</v>
+        <f>25%*1</f>
+        <v>0.25</v>
       </c>
       <c r="AB15" s="2">
-        <f>Y15*(1-AA15)</f>
-        <v>17.899999999999999</v>
+        <f t="shared" si="7"/>
+        <v>27.75</v>
       </c>
       <c r="AC15" s="2">
-        <f>Y15*AA15 + Z15</f>
-        <v>29.462499999999999</v>
+        <f t="shared" si="8"/>
+        <v>24.25</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="13"/>
-        <v>65.673749999999998</v>
+        <f t="shared" si="9"/>
+        <v>72.45</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15">
-        <f t="shared" si="14"/>
-        <v>47.362499999999997</v>
+        <f t="shared" si="10"/>
+        <v>52</v>
       </c>
       <c r="AT15" s="10"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -2712,29 +2712,28 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L16">
         <v>2.2000000000000002</v>
       </c>
       <c r="M16">
-        <v>2.8200000000000002E-4</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="N16">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="11">
-        <f>3.14*10^(-4)</f>
-        <v>3.1400000000000004E-4</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="R16" s="11">
-        <v>2</v>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
       </c>
       <c r="S16">
         <v>2.9099999999999999E-5</v>
@@ -2742,59 +2741,59 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" s="11">
-        <f>5+-5</f>
-        <v>0</v>
+      <c r="U16">
+        <v>2</v>
       </c>
       <c r="V16" s="2">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="W16" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="X16" s="9">
-        <v>-0.35</v>
+        <v>8.5</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="1"/>
-        <v>36.400000000000006</v>
+        <f t="shared" si="12"/>
+        <v>37.200000000000003</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="2"/>
-        <v>11.375</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
       <c r="AA16" s="12">
+        <f>50%*1</f>
         <v>0.5</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="11"/>
-        <v>18.200000000000003</v>
+        <f>Y16*(1-AA16)</f>
+        <v>18.600000000000001</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="12"/>
-        <v>29.575000000000003</v>
+        <f>Y16*AA16 + Z16</f>
+        <v>30.6</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="13"/>
-        <v>66.202500000000015</v>
+        <f t="shared" si="9"/>
+        <v>68.22</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16">
-        <f t="shared" si="14"/>
-        <v>47.775000000000006</v>
+        <f t="shared" si="10"/>
+        <v>49.2</v>
       </c>
       <c r="AT16" s="10"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>25</v>
@@ -2818,292 +2817,296 @@
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L17">
         <v>2.2000000000000002</v>
       </c>
       <c r="M17">
-        <v>5.6539999999999997E-4</v>
+        <v>2.8200000000000002E-4</v>
       </c>
       <c r="N17">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
+      <c r="P17" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="R17" s="11">
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>1</v>
+      <c r="U17" s="11">
+        <f>5+-5</f>
+        <v>0</v>
       </c>
       <c r="V17" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>52</v>
+        <v>17.5</v>
+      </c>
+      <c r="X17" s="14">
+        <v>-0.4</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="1"/>
-        <v>9.7999999999999989</v>
+        <f t="shared" si="12"/>
+        <v>33.599999999999994</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0625</v>
+        <f t="shared" si="13"/>
+        <v>10.5</v>
       </c>
       <c r="AA17" s="12">
+        <f>50%*1</f>
         <v>0.5</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="11"/>
-        <v>4.8999999999999995</v>
+        <f t="shared" ref="AB17:AB65" si="14">Y17*(1-AA17)</f>
+        <v>16.799999999999997</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="12"/>
-        <v>7.9624999999999995</v>
+        <f t="shared" ref="AC17:AC65" si="15">Y17*AA17 + Z17</f>
+        <v>27.299999999999997</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="13"/>
-        <v>17.823749999999997</v>
+        <f t="shared" si="9"/>
+        <v>61.109999999999992</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17">
-        <f t="shared" si="14"/>
-        <v>12.862499999999999</v>
+        <f t="shared" si="10"/>
+        <v>44.099999999999994</v>
       </c>
       <c r="AT17" s="10"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>500</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="1">
         <v>220000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>1576</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>1870</v>
       </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0.24</v>
+      </c>
+      <c r="L18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M18" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N18">
         <v>0.03</v>
       </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1</v>
-      </c>
-      <c r="S18" s="6">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="8">
-        <v>0</v>
-      </c>
-      <c r="W18" s="8">
-        <v>0</v>
-      </c>
-      <c r="X18" s="16" t="s">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>11.200000000000001</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3.5</v>
+      </c>
+      <c r="AA18" s="12">
+        <f>50%*1</f>
+        <v>0.5</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5.6000000000000005</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9.1000000000000014</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>20.370000000000005</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>14.700000000000003</v>
       </c>
       <c r="AT18" s="10"/>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>500</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>220000</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>1576</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>1870</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0.24</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L19" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M19">
-        <v>5.6539999999999997E-4</v>
-      </c>
-      <c r="N19">
+      <c r="M19" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N19" s="6">
         <v>0.03</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19" s="2">
-        <v>21</v>
-      </c>
-      <c r="W19">
-        <v>10.1</v>
-      </c>
-      <c r="X19" s="9" t="s">
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="2"/>
-        <v>10.1</v>
-      </c>
-      <c r="AA19" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
         <v>0</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" ref="AB19:AB29" si="15">Y19*(1-AA19)</f>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" ref="AC19:AC29" si="16">Y19*AA19 + Z19</f>
-        <v>10.1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" ref="AD19:AD29" si="17">1.35*Y19+1.5*Z19</f>
-        <v>43.5</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19">
-        <f t="shared" ref="AF19:AF29" si="18">AB19+AC19</f>
-        <v>31.1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT19" s="10"/>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>25</v>
@@ -3127,16 +3130,16 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L20">
         <v>2.2000000000000002</v>
       </c>
       <c r="M20">
-        <v>1.9E-3</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="N20">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3151,63 +3154,63 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" s="2">
-        <v>82.5</v>
+        <v>21</v>
       </c>
       <c r="W20">
-        <v>30</v>
-      </c>
-      <c r="X20" s="9">
-        <v>0</v>
+        <v>10.1</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="13"/>
+        <v>10.1</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="2">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="AC20" s="2">
         <f t="shared" si="15"/>
-        <v>82.5</v>
-      </c>
-      <c r="AC20" s="2">
-        <f t="shared" si="16"/>
-        <v>30</v>
+        <v>10.1</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="17"/>
-        <v>156.375</v>
+        <f t="shared" si="9"/>
+        <v>43.5</v>
       </c>
       <c r="AE20" s="4"/>
       <c r="AF20">
-        <f t="shared" si="18"/>
-        <v>112.5</v>
+        <f t="shared" si="10"/>
+        <v>31.1</v>
       </c>
       <c r="AT20" s="10"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -3231,16 +3234,16 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L21">
         <v>2.2000000000000002</v>
       </c>
       <c r="M21">
-        <v>1.1286E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="N21">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3255,64 +3258,63 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" s="11">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U21">
+        <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>39.4</v>
+        <v>82.5</v>
       </c>
       <c r="W21">
-        <v>15.8</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="1"/>
-        <v>39.4</v>
+        <f t="shared" si="12"/>
+        <v>82.5</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="2"/>
-        <v>15.8</v>
+        <f t="shared" si="13"/>
+        <v>30</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="2">
+        <f t="shared" si="14"/>
+        <v>82.5</v>
+      </c>
+      <c r="AC21" s="2">
         <f t="shared" si="15"/>
-        <v>39.4</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="16"/>
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" si="17"/>
-        <v>76.890000000000015</v>
+        <f t="shared" si="9"/>
+        <v>156.375</v>
       </c>
       <c r="AE21" s="4"/>
       <c r="AF21">
-        <f t="shared" si="18"/>
-        <v>55.2</v>
+        <f t="shared" si="10"/>
+        <v>112.5</v>
       </c>
       <c r="AT21" s="10"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>25</v>
@@ -3336,13 +3338,13 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L22">
         <v>2.2000000000000002</v>
       </c>
       <c r="M22">
-        <v>2.0300000000000001E-3</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="N22">
         <v>0.03</v>
@@ -3360,63 +3362,64 @@
         <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
+      <c r="U22" s="11">
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V22" s="2">
-        <v>67.5</v>
+        <v>39.4</v>
       </c>
       <c r="W22">
-        <v>28</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
+        <v>15.8</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
+        <f t="shared" si="12"/>
+        <v>39.4</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>15.8</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="2">
+        <f t="shared" si="14"/>
+        <v>39.4</v>
+      </c>
+      <c r="AC22" s="2">
         <f t="shared" si="15"/>
-        <v>67.5</v>
-      </c>
-      <c r="AC22" s="2">
-        <f t="shared" si="16"/>
-        <v>28</v>
+        <v>15.8</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="17"/>
-        <v>133.125</v>
+        <f t="shared" si="9"/>
+        <v>76.890000000000015</v>
       </c>
       <c r="AE22" s="4"/>
       <c r="AF22">
-        <f t="shared" si="18"/>
-        <v>95.5</v>
+        <f t="shared" si="10"/>
+        <v>55.2</v>
       </c>
       <c r="AT22" s="10"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23">
         <v>25</v>
@@ -3440,13 +3443,13 @@
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L23">
         <v>2.2000000000000002</v>
       </c>
       <c r="M23">
-        <v>2.8160000000000001E-4</v>
+        <v>2.0300000000000001E-3</v>
       </c>
       <c r="N23">
         <v>0.03</v>
@@ -3464,64 +3467,63 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" s="11">
-        <f>7-3</f>
-        <v>4</v>
+      <c r="U23">
+        <v>0</v>
       </c>
       <c r="V23" s="2">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="W23">
-        <v>6.2</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>67.5</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="2"/>
-        <v>6.2</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
       </c>
       <c r="AB23" s="2">
+        <f t="shared" si="14"/>
+        <v>67.5</v>
+      </c>
+      <c r="AC23" s="2">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <f t="shared" si="16"/>
-        <v>6.2</v>
+        <v>28</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="17"/>
-        <v>9.3000000000000007</v>
+        <f t="shared" si="9"/>
+        <v>133.125</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23">
-        <f t="shared" si="18"/>
-        <v>6.2</v>
+        <f t="shared" si="10"/>
+        <v>95.5</v>
       </c>
       <c r="AT23" s="10"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>25</v>
@@ -3545,16 +3547,16 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L24">
         <v>2.2000000000000002</v>
       </c>
       <c r="M24">
-        <v>1.106E-3</v>
+        <v>2.8160000000000001E-4</v>
       </c>
       <c r="N24">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3569,63 +3571,64 @@
         <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24">
-        <v>0</v>
+      <c r="U24" s="11">
+        <f>7-3</f>
+        <v>4</v>
       </c>
       <c r="V24" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>13</v>
-      </c>
-      <c r="X24" s="9">
-        <v>0</v>
+        <v>6.2</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>6.2</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
         <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AD24" s="4">
-        <f t="shared" si="17"/>
-        <v>46.5</v>
+        <f t="shared" si="9"/>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24">
-        <f t="shared" si="18"/>
-        <v>33</v>
+        <f t="shared" si="10"/>
+        <v>6.2</v>
       </c>
       <c r="AT24" s="10"/>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -3649,16 +3652,16 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L25">
         <v>2.2000000000000002</v>
       </c>
       <c r="M25">
-        <v>2.7999999999999998E-4</v>
+        <v>1.106E-3</v>
       </c>
       <c r="N25">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3673,64 +3676,63 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" s="11">
-        <f>7-3</f>
-        <v>4</v>
+      <c r="U25">
+        <v>0</v>
       </c>
       <c r="V25" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W25">
-        <v>6.2</v>
-      </c>
-      <c r="X25" s="9" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="1"/>
-        <v>2.8</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="2"/>
-        <v>5.24</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="AA25" s="3">
         <v>0</v>
       </c>
       <c r="AB25" s="2">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AC25" s="2">
         <f t="shared" si="15"/>
-        <v>2.8</v>
-      </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="16"/>
-        <v>5.24</v>
+        <v>13</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="17"/>
-        <v>11.64</v>
+        <f t="shared" si="9"/>
+        <v>46.5</v>
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25">
-        <f t="shared" si="18"/>
-        <v>8.0399999999999991</v>
+        <f t="shared" si="10"/>
+        <v>33</v>
       </c>
       <c r="AT25" s="10"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -3754,13 +3756,13 @@
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L26">
         <v>2.2000000000000002</v>
       </c>
       <c r="M26">
-        <v>1.7852E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="N26">
         <v>0.03</v>
@@ -3778,63 +3780,64 @@
         <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>55</v>
+      <c r="U26" s="11">
+        <f>7-3</f>
+        <v>4</v>
+      </c>
+      <c r="V26" s="2">
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>24</v>
-      </c>
-      <c r="X26" s="9">
-        <v>0.08</v>
+        <v>6.2</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="1"/>
-        <v>59.4</v>
+        <f t="shared" si="12"/>
+        <v>2.8</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="2"/>
-        <v>25.92</v>
+        <f t="shared" si="13"/>
+        <v>5.24</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
       </c>
       <c r="AB26" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8</v>
+      </c>
+      <c r="AC26" s="2">
         <f t="shared" si="15"/>
-        <v>59.4</v>
-      </c>
-      <c r="AC26" s="2">
-        <f t="shared" si="16"/>
-        <v>25.92</v>
+        <v>5.24</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="17"/>
-        <v>119.07</v>
+        <f t="shared" si="9"/>
+        <v>11.64</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26">
-        <f t="shared" si="18"/>
-        <v>85.32</v>
+        <f t="shared" si="10"/>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AT26" s="10"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -3858,13 +3861,13 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L27">
         <v>2.2000000000000002</v>
       </c>
       <c r="M27">
-        <v>5.6539999999999997E-4</v>
+        <v>1.7852E-3</v>
       </c>
       <c r="N27">
         <v>0.03</v>
@@ -3882,64 +3885,63 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="11">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U27">
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="W27">
-        <v>14.5</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0.08</v>
       </c>
       <c r="Y27" s="2">
-        <f t="shared" si="1"/>
-        <v>33.799999999999997</v>
+        <f t="shared" si="12"/>
+        <v>59.4</v>
       </c>
       <c r="Z27" s="2">
-        <f t="shared" si="2"/>
-        <v>13.54</v>
-      </c>
-      <c r="AA27" s="5">
+        <f t="shared" si="13"/>
+        <v>25.92</v>
+      </c>
+      <c r="AA27" s="3">
         <v>0</v>
       </c>
       <c r="AB27" s="2">
+        <f t="shared" si="14"/>
+        <v>59.4</v>
+      </c>
+      <c r="AC27" s="2">
         <f t="shared" si="15"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="AC27" s="2">
-        <f t="shared" si="16"/>
-        <v>13.54</v>
+        <v>25.92</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="17"/>
-        <v>65.94</v>
+        <f t="shared" si="9"/>
+        <v>119.07</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27">
-        <f t="shared" si="18"/>
-        <v>47.339999999999996</v>
+        <f t="shared" si="10"/>
+        <v>85.32</v>
       </c>
       <c r="AT27" s="10"/>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>25</v>
@@ -3963,16 +3965,16 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L28">
         <v>2.2000000000000002</v>
       </c>
       <c r="M28">
-        <v>1.8981000000000002E-3</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="N28">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3987,63 +3989,64 @@
         <v>1</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>0</v>
+      <c r="U28" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>80.5</v>
+        <v>36</v>
       </c>
       <c r="W28">
-        <v>28</v>
-      </c>
-      <c r="X28" s="9">
-        <v>0</v>
+        <v>14.5</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="1"/>
-        <v>80.5</v>
+        <f t="shared" si="12"/>
+        <v>33.799999999999997</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="13"/>
+        <v>13.54</v>
       </c>
       <c r="AA28" s="5">
         <v>0</v>
       </c>
       <c r="AB28" s="2">
+        <f t="shared" si="14"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AC28" s="2">
         <f t="shared" si="15"/>
-        <v>80.5</v>
-      </c>
-      <c r="AC28" s="2">
-        <f t="shared" si="16"/>
-        <v>28</v>
+        <v>13.54</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="17"/>
-        <v>150.67500000000001</v>
+        <f t="shared" si="9"/>
+        <v>65.94</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28">
-        <f t="shared" si="18"/>
-        <v>108.5</v>
+        <f t="shared" si="10"/>
+        <v>47.339999999999996</v>
       </c>
       <c r="AT28" s="10"/>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>25</v>
@@ -4067,16 +4070,16 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L29">
         <v>2.2000000000000002</v>
       </c>
       <c r="M29">
-        <v>5.6570000000000004E-4</v>
+        <v>1.8981000000000002E-3</v>
       </c>
       <c r="N29">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4091,268 +4094,268 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>21.3</v>
+        <v>80.5</v>
       </c>
       <c r="W29">
-        <v>10</v>
-      </c>
-      <c r="X29" s="9" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" si="1"/>
-        <v>21.3</v>
+        <f t="shared" si="12"/>
+        <v>80.5</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="AA29" s="5">
         <v>0</v>
       </c>
       <c r="AB29" s="2">
+        <f t="shared" si="14"/>
+        <v>80.5</v>
+      </c>
+      <c r="AC29" s="2">
         <f t="shared" si="15"/>
-        <v>21.3</v>
-      </c>
-      <c r="AC29" s="2">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AD29" s="4">
-        <f t="shared" si="17"/>
-        <v>43.755000000000003</v>
+        <f t="shared" si="9"/>
+        <v>150.67500000000001</v>
       </c>
       <c r="AE29" s="4"/>
       <c r="AF29">
-        <f t="shared" si="18"/>
-        <v>31.3</v>
+        <f t="shared" si="10"/>
+        <v>108.5</v>
       </c>
       <c r="AT29" s="10"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="6">
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
         <v>25</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>500</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="1">
         <v>220000</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>1576</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30">
         <v>1870</v>
       </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L30" s="6">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.24</v>
+      </c>
+      <c r="L30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M30" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N30" s="6">
+      <c r="M30">
+        <v>5.6570000000000004E-4</v>
+      </c>
+      <c r="N30">
         <v>0.03</v>
       </c>
-      <c r="O30" s="6">
-        <v>1</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="6">
-        <v>1</v>
-      </c>
-      <c r="S30" s="6">
-        <v>0</v>
-      </c>
-      <c r="T30" s="6">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
-      <c r="W30" s="8">
-        <v>0</v>
-      </c>
-      <c r="X30" s="16" t="s">
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>21.3</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>21.3</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AA30" s="5">
         <v>0</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" ref="AB30" si="19">Y30*(1-AA30)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>21.3</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" ref="AC30" si="20">Y30*AA30 + Z30</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" ref="AD30" si="21">1.35*Y30+1.5*Z30</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43.755000000000003</v>
       </c>
       <c r="AE30" s="4"/>
       <c r="AF30">
-        <f t="shared" ref="AF30" si="22">AB30+AC30</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>31.3</v>
       </c>
       <c r="AT30" s="10"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A31">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="D31" s="6">
         <v>25</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <v>500</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="7">
         <v>220000</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>1576</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>1870</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0.24</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M31">
-        <v>5.6570000000000004E-4</v>
-      </c>
-      <c r="N31">
+      <c r="M31" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N31" s="6">
         <v>0.03</v>
       </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
-      <c r="V31">
-        <v>20</v>
-      </c>
-      <c r="W31">
-        <v>10</v>
-      </c>
-      <c r="X31" s="9" t="s">
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <v>1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <v>0</v>
+      </c>
+      <c r="U31" s="6">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+      <c r="W31" s="8">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y31" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z31" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AA31" s="5">
         <v>0</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" ref="AB31:AB42" si="23">Y31*(1-AA31)</f>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC31" s="2">
-        <f t="shared" ref="AC31:AC42" si="24">Y31*AA31 + Z31</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AD31" s="4">
-        <f t="shared" ref="AD31:AD42" si="25">1.35*Y31+1.5*Z31</f>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE31" s="4"/>
       <c r="AF31">
-        <f t="shared" ref="AF31:AF42" si="26">AB31+AC31</f>
-        <v>30</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT31" s="10"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>25</v>
@@ -4376,16 +4379,16 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L32">
         <v>2.2000000000000002</v>
       </c>
       <c r="M32">
-        <v>1.9E-3</v>
+        <v>5.6570000000000004E-4</v>
       </c>
       <c r="N32">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -4405,59 +4408,58 @@
       <c r="T32">
         <v>0</v>
       </c>
-      <c r="U32" s="11">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U32">
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>88.5</v>
+        <v>20</v>
       </c>
       <c r="W32">
-        <v>32</v>
-      </c>
-      <c r="X32" s="9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="1"/>
-        <v>88.5</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="Z32" s="2">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AA32" s="5">
         <v>0</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="23"/>
-        <v>88.5</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="24"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="AD32" s="4">
-        <f t="shared" si="25"/>
-        <v>167.47500000000002</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
       <c r="AE32" s="4"/>
       <c r="AF32">
-        <f t="shared" si="26"/>
-        <v>120.5</v>
+        <f t="shared" si="10"/>
+        <v>30</v>
       </c>
       <c r="AT32" s="10"/>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -4481,16 +4483,16 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L33">
         <v>2.2000000000000002</v>
       </c>
       <c r="M33">
-        <v>8.470000000000001E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="N33">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -4511,58 +4513,58 @@
         <v>0</v>
       </c>
       <c r="U33" s="11">
-        <f>7-1</f>
-        <v>6</v>
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V33">
-        <v>43</v>
+        <v>88.5</v>
       </c>
       <c r="W33">
-        <v>17</v>
-      </c>
-      <c r="X33" s="9" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="1"/>
-        <v>47.65</v>
+        <f t="shared" si="12"/>
+        <v>88.5</v>
       </c>
       <c r="Z33" s="2">
-        <f t="shared" si="2"/>
-        <v>18.829999999999998</v>
+        <f t="shared" si="13"/>
+        <v>32</v>
       </c>
       <c r="AA33" s="5">
         <v>0</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="23"/>
-        <v>47.65</v>
+        <f t="shared" si="14"/>
+        <v>88.5</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="24"/>
-        <v>18.829999999999998</v>
+        <f t="shared" si="15"/>
+        <v>32</v>
       </c>
       <c r="AD33" s="4">
-        <f t="shared" si="25"/>
-        <v>92.572499999999991</v>
+        <f t="shared" si="9"/>
+        <v>167.47500000000002</v>
       </c>
       <c r="AE33" s="4"/>
       <c r="AF33">
-        <f t="shared" si="26"/>
-        <v>66.47999999999999</v>
+        <f t="shared" si="10"/>
+        <v>120.5</v>
       </c>
       <c r="AT33" s="10"/>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>25</v>
@@ -4586,16 +4588,16 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L34">
         <v>2.2000000000000002</v>
       </c>
       <c r="M34">
-        <v>1.56E-3</v>
+        <v>8.470000000000001E-4</v>
       </c>
       <c r="N34">
-        <v>5.2999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -4616,58 +4618,58 @@
         <v>0</v>
       </c>
       <c r="U34" s="11">
-        <f>5-1</f>
-        <v>4</v>
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V34">
-        <v>77.5</v>
+        <v>43</v>
       </c>
       <c r="W34">
-        <v>30.5</v>
-      </c>
-      <c r="X34" s="9">
-        <v>-0.12</v>
+        <v>17</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="1"/>
-        <v>68.2</v>
+        <f t="shared" si="12"/>
+        <v>47.65</v>
       </c>
       <c r="Z34" s="2">
-        <f t="shared" si="2"/>
-        <v>26.84</v>
+        <f t="shared" si="13"/>
+        <v>18.829999999999998</v>
       </c>
       <c r="AA34" s="5">
         <v>0</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="23"/>
-        <v>68.2</v>
+        <f t="shared" si="14"/>
+        <v>47.65</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="24"/>
-        <v>26.84</v>
+        <f t="shared" si="15"/>
+        <v>18.829999999999998</v>
       </c>
       <c r="AD34" s="4">
-        <f t="shared" si="25"/>
-        <v>132.33000000000001</v>
+        <f t="shared" si="9"/>
+        <v>92.572499999999991</v>
       </c>
       <c r="AE34" s="4"/>
       <c r="AF34">
-        <f t="shared" si="26"/>
-        <v>95.04</v>
+        <f t="shared" si="10"/>
+        <v>66.47999999999999</v>
       </c>
       <c r="AT34" s="10"/>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>25</v>
@@ -4691,16 +4693,16 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L35">
         <v>2.2000000000000002</v>
       </c>
       <c r="M35">
-        <v>2.7999999999999998E-4</v>
+        <v>1.56E-3</v>
       </c>
       <c r="N35">
-        <v>0.03</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4721,58 +4723,58 @@
         <v>0</v>
       </c>
       <c r="U35" s="11">
-        <f>7-1</f>
-        <v>6</v>
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="W35">
-        <v>6.4</v>
-      </c>
-      <c r="X35" s="9" t="s">
-        <v>52</v>
+        <v>30.5</v>
+      </c>
+      <c r="X35" s="9">
+        <v>-0.12</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6499999999999995</v>
+        <f t="shared" si="12"/>
+        <v>68.2</v>
       </c>
       <c r="Z35" s="2">
-        <f t="shared" si="2"/>
-        <v>8.23</v>
+        <f t="shared" si="13"/>
+        <v>26.84</v>
       </c>
       <c r="AA35" s="5">
         <v>0</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="23"/>
-        <v>4.6499999999999995</v>
+        <f t="shared" si="14"/>
+        <v>68.2</v>
       </c>
       <c r="AC35" s="2">
-        <f t="shared" si="24"/>
-        <v>8.23</v>
+        <f t="shared" si="15"/>
+        <v>26.84</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" si="25"/>
-        <v>18.622500000000002</v>
+        <f t="shared" si="9"/>
+        <v>132.33000000000001</v>
       </c>
       <c r="AE35" s="4"/>
       <c r="AF35">
-        <f t="shared" si="26"/>
-        <v>12.879999999999999</v>
+        <f t="shared" si="10"/>
+        <v>95.04</v>
       </c>
       <c r="AT35" s="10"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>25</v>
@@ -4796,16 +4798,16 @@
         <v>1</v>
       </c>
       <c r="K36">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L36">
         <v>2.2000000000000002</v>
       </c>
       <c r="M36">
-        <v>1.9530000000000003E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="N36">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -4820,63 +4822,64 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
+      <c r="U36" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V36">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>13</v>
-      </c>
-      <c r="X36" s="9">
-        <v>0</v>
+        <v>6.4</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="12"/>
+        <v>4.6499999999999995</v>
       </c>
       <c r="Z36" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="13"/>
+        <v>8.23</v>
       </c>
       <c r="AA36" s="5">
         <v>0</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="23"/>
-        <v>25</v>
+        <f t="shared" si="14"/>
+        <v>4.6499999999999995</v>
       </c>
       <c r="AC36" s="2">
-        <f t="shared" si="24"/>
-        <v>13</v>
+        <f t="shared" si="15"/>
+        <v>8.23</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="25"/>
-        <v>53.25</v>
+        <f t="shared" si="9"/>
+        <v>18.622500000000002</v>
       </c>
       <c r="AE36" s="4"/>
       <c r="AF36">
-        <f t="shared" si="26"/>
-        <v>38</v>
+        <f t="shared" si="10"/>
+        <v>12.879999999999999</v>
       </c>
       <c r="AT36" s="10"/>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>25</v>
@@ -4900,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="K37">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L37">
         <v>2.2000000000000002</v>
       </c>
       <c r="M37">
-        <v>2.7999999999999998E-4</v>
+        <v>1.9530000000000003E-3</v>
       </c>
       <c r="N37">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -4924,64 +4927,63 @@
         <v>1</v>
       </c>
       <c r="S37">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37" s="11">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U37">
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="W37">
-        <v>6.6</v>
-      </c>
-      <c r="X37" s="9" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="1"/>
-        <v>-1.7749999999999995</v>
+        <f t="shared" si="12"/>
+        <v>25</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="2"/>
-        <v>4.5374999999999996</v>
+        <f t="shared" si="13"/>
+        <v>13</v>
       </c>
       <c r="AA37" s="5">
         <v>0</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="23"/>
-        <v>-1.7749999999999995</v>
+        <f t="shared" si="14"/>
+        <v>25</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="24"/>
-        <v>4.5374999999999996</v>
+        <f t="shared" si="15"/>
+        <v>13</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="25"/>
-        <v>4.41</v>
+        <f t="shared" si="9"/>
+        <v>53.25</v>
       </c>
       <c r="AE37" s="4"/>
       <c r="AF37">
-        <f t="shared" si="26"/>
-        <v>2.7625000000000002</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="AT37" s="10"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>25</v>
@@ -5005,13 +5007,13 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L38">
         <v>2.2000000000000002</v>
       </c>
       <c r="M38">
-        <v>2.6300000000000004E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="N38">
         <v>0.03</v>
@@ -5029,63 +5031,64 @@
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
+      <c r="U38" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V38">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="W38">
-        <v>27.5</v>
-      </c>
-      <c r="X38" s="14">
-        <v>0.15</v>
+        <v>6.6</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y38" s="2">
-        <f t="shared" si="1"/>
-        <v>88.55</v>
+        <f t="shared" si="12"/>
+        <v>-1.7749999999999995</v>
       </c>
       <c r="Z38" s="2">
-        <f t="shared" si="2"/>
-        <v>31.625</v>
+        <f t="shared" si="13"/>
+        <v>4.5374999999999996</v>
       </c>
       <c r="AA38" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="23"/>
-        <v>66.412499999999994</v>
+        <f t="shared" si="14"/>
+        <v>-1.7749999999999995</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="24"/>
-        <v>53.762500000000003</v>
+        <f t="shared" si="15"/>
+        <v>4.5374999999999996</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="25"/>
-        <v>166.98000000000002</v>
+        <f t="shared" si="9"/>
+        <v>4.41</v>
       </c>
       <c r="AE38" s="4"/>
       <c r="AF38">
-        <f t="shared" si="26"/>
-        <v>120.175</v>
+        <f t="shared" si="10"/>
+        <v>2.7625000000000002</v>
       </c>
       <c r="AT38" s="10"/>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>25</v>
@@ -5109,13 +5112,13 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L39">
         <v>2.2000000000000002</v>
       </c>
       <c r="M39">
-        <v>2.7999999999999998E-4</v>
+        <v>2.6300000000000004E-3</v>
       </c>
       <c r="N39">
         <v>0.03</v>
@@ -5133,64 +5136,63 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39" s="11">
-        <f>7+1+4-6</f>
-        <v>6</v>
+      <c r="U39">
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>38.5</v>
+        <v>77</v>
       </c>
       <c r="W39">
-        <v>15.4</v>
-      </c>
-      <c r="X39" s="9" t="s">
-        <v>52</v>
+        <v>27.5</v>
+      </c>
+      <c r="X39" s="14">
+        <v>0.15</v>
       </c>
       <c r="Y39" s="2">
-        <f t="shared" si="1"/>
-        <v>23.1</v>
+        <f t="shared" si="12"/>
+        <v>88.55</v>
       </c>
       <c r="Z39" s="2">
-        <f t="shared" si="2"/>
-        <v>10.025</v>
+        <f t="shared" si="13"/>
+        <v>31.625</v>
       </c>
       <c r="AA39" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="23"/>
-        <v>11.55</v>
+        <f t="shared" si="14"/>
+        <v>66.412499999999994</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="24"/>
-        <v>21.575000000000003</v>
+        <f t="shared" si="15"/>
+        <v>53.762500000000003</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="25"/>
-        <v>46.222500000000004</v>
+        <f t="shared" si="9"/>
+        <v>166.98000000000002</v>
       </c>
       <c r="AE39" s="4"/>
       <c r="AF39">
-        <f t="shared" si="26"/>
-        <v>33.125</v>
+        <f t="shared" si="10"/>
+        <v>120.175</v>
       </c>
       <c r="AT39" s="10"/>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>25</v>
@@ -5214,30 +5216,28 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M40" s="13">
-        <v>0</v>
-      </c>
-      <c r="N40" s="13">
-        <v>0.06</v>
+      <c r="M40">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="N40">
+        <v>0.03</v>
       </c>
       <c r="O40">
         <v>1</v>
       </c>
-      <c r="P40" s="11">
-        <f>3.14*10^(-4)</f>
-        <v>3.1400000000000004E-4</v>
+      <c r="P40">
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0.04</v>
-      </c>
-      <c r="R40" s="11">
-        <f>2+4</f>
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
       </c>
       <c r="S40">
         <v>2.9099999999999999E-5</v>
@@ -5246,58 +5246,58 @@
         <v>0</v>
       </c>
       <c r="U40" s="11">
-        <f>(7+1)*0</f>
-        <v>0</v>
+        <f>7+1+4-6</f>
+        <v>6</v>
       </c>
       <c r="V40">
-        <v>77</v>
+        <v>38.5</v>
       </c>
       <c r="W40">
-        <v>26.5</v>
-      </c>
-      <c r="X40" s="14">
-        <v>0.25</v>
+        <v>15.4</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="1"/>
-        <v>96.25</v>
+        <f t="shared" si="12"/>
+        <v>23.1</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="2"/>
-        <v>33.125</v>
-      </c>
-      <c r="AA40" s="15">
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>10.025</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0.5</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>11.55</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="24"/>
-        <v>129.375</v>
+        <f t="shared" si="15"/>
+        <v>21.575000000000003</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="25"/>
-        <v>179.625</v>
+        <f t="shared" si="9"/>
+        <v>46.222500000000004</v>
       </c>
       <c r="AE40" s="4"/>
       <c r="AF40">
-        <f t="shared" si="26"/>
-        <v>129.375</v>
+        <f t="shared" si="10"/>
+        <v>33.125</v>
       </c>
       <c r="AT40" s="10"/>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>25</v>
@@ -5321,28 +5321,30 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M41">
-        <v>5.6539999999999997E-4</v>
-      </c>
-      <c r="N41">
-        <v>0.03</v>
+      <c r="M41" s="13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13">
+        <v>0.06</v>
       </c>
       <c r="O41">
         <v>1</v>
       </c>
-      <c r="P41">
-        <v>0</v>
+      <c r="P41" s="11">
+        <f>3.14*10^(-4)</f>
+        <v>3.1400000000000004E-4</v>
       </c>
       <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
+        <v>0.04</v>
+      </c>
+      <c r="R41" s="11">
+        <f>2+4</f>
+        <v>6</v>
       </c>
       <c r="S41">
         <v>2.9099999999999999E-5</v>
@@ -5350,263 +5352,264 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>2</v>
+      <c r="U41" s="11">
+        <f>(7+1)*0</f>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="W41">
-        <v>9.5</v>
-      </c>
-      <c r="X41" s="9" t="s">
-        <v>52</v>
+        <v>26.5</v>
+      </c>
+      <c r="X41" s="14">
+        <v>0.25</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="1"/>
-        <v>10.375</v>
+        <f t="shared" si="12"/>
+        <v>96.25</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="2"/>
-        <v>6.1875</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0.5</v>
+        <f t="shared" si="13"/>
+        <v>33.125</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>1</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="23"/>
-        <v>5.1875</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="24"/>
-        <v>11.375</v>
+        <f t="shared" si="15"/>
+        <v>129.375</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="25"/>
-        <v>23.287500000000001</v>
+        <f t="shared" si="9"/>
+        <v>179.625</v>
       </c>
       <c r="AE41" s="4"/>
       <c r="AF41">
-        <f t="shared" si="26"/>
-        <v>16.5625</v>
+        <f t="shared" si="10"/>
+        <v>129.375</v>
       </c>
       <c r="AT41" s="10"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="6">
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42">
         <v>25</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>500</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="1">
         <v>220000</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <v>1576</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42">
         <v>1870</v>
       </c>
-      <c r="J42" s="6">
-        <v>1</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L42" s="6">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.24</v>
+      </c>
+      <c r="L42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M42" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N42" s="6">
+      <c r="M42">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="N42">
         <v>0.03</v>
       </c>
-      <c r="O42" s="6">
-        <v>1</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6">
-        <v>1</v>
-      </c>
-      <c r="S42" s="6">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6">
-        <v>0</v>
-      </c>
-      <c r="U42" s="6">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>0</v>
-      </c>
-      <c r="W42" s="8">
-        <v>0</v>
-      </c>
-      <c r="X42" s="16" t="s">
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>20</v>
+      </c>
+      <c r="W42">
+        <v>9.5</v>
+      </c>
+      <c r="X42" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>10.375</v>
       </c>
       <c r="Z42" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>6.1875</v>
       </c>
       <c r="AA42" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5.1875</v>
       </c>
       <c r="AC42" s="2">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>11.375</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>23.287500000000001</v>
       </c>
       <c r="AE42" s="4"/>
       <c r="AF42">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>16.5625</v>
       </c>
       <c r="AT42" s="10"/>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <v>500</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="7">
         <v>220000</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <v>1576</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
         <v>1870</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0.24</v>
-      </c>
-      <c r="L43">
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L43" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M43">
-        <v>5.7000000000000009E-4</v>
-      </c>
-      <c r="N43">
+      <c r="M43" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N43" s="6">
         <v>0.03</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>2</v>
-      </c>
-      <c r="V43">
-        <v>20</v>
-      </c>
-      <c r="W43">
-        <v>10.1</v>
-      </c>
-      <c r="X43" s="9" t="s">
+      <c r="O43" s="6">
+        <v>1</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6">
+        <v>1</v>
+      </c>
+      <c r="S43" s="6">
+        <v>0</v>
+      </c>
+      <c r="T43" s="6">
+        <v>0</v>
+      </c>
+      <c r="U43" s="6">
+        <v>0</v>
+      </c>
+      <c r="V43" s="8">
+        <v>0</v>
+      </c>
+      <c r="W43" s="8">
+        <v>0</v>
+      </c>
+      <c r="X43" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y43" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <f t="shared" si="2"/>
-        <v>10.1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AA43" s="5">
         <v>0</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" ref="AB43:AB54" si="27">Y43*(1-AA43)</f>
-        <v>20</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" ref="AC43:AC54" si="28">Y43*AA43 + Z43</f>
-        <v>10.1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" ref="AD43:AD54" si="29">1.35*Y43+1.5*Z43</f>
-        <v>42.15</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE43" s="4"/>
       <c r="AF43">
-        <f t="shared" ref="AF43:AF54" si="30">AB43+AC43</f>
-        <v>30.1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT43" s="10"/>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>25</v>
@@ -5630,16 +5633,16 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L44">
         <v>2.2000000000000002</v>
       </c>
       <c r="M44">
-        <v>1.9E-3</v>
+        <v>5.7000000000000009E-4</v>
       </c>
       <c r="N44">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -5659,59 +5662,58 @@
       <c r="T44">
         <v>0</v>
       </c>
-      <c r="U44" s="11">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U44">
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="W44">
-        <v>34</v>
-      </c>
-      <c r="X44" s="9">
-        <v>0</v>
+        <v>10.1</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="1"/>
-        <v>94</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="Z44" s="2">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="13"/>
+        <v>10.1</v>
       </c>
       <c r="AA44" s="5">
         <v>0</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="27"/>
-        <v>94</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="28"/>
-        <v>34</v>
+        <f t="shared" si="15"/>
+        <v>10.1</v>
       </c>
       <c r="AD44" s="4">
-        <f t="shared" si="29"/>
-        <v>177.9</v>
+        <f t="shared" si="9"/>
+        <v>42.15</v>
       </c>
       <c r="AE44" s="4"/>
       <c r="AF44">
-        <f t="shared" si="30"/>
-        <v>128</v>
+        <f t="shared" si="10"/>
+        <v>30.1</v>
       </c>
       <c r="AT44" s="10"/>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D45">
         <v>25</v>
@@ -5735,16 +5737,16 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L45">
         <v>2.2000000000000002</v>
       </c>
       <c r="M45">
-        <v>8.5000000000000006E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="N45">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -5765,58 +5767,58 @@
         <v>0</v>
       </c>
       <c r="U45" s="11">
-        <f>7-1</f>
-        <v>6</v>
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V45">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="W45">
-        <v>18</v>
-      </c>
-      <c r="X45" s="9" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="X45" s="9">
+        <v>0</v>
       </c>
       <c r="Y45" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" si="12"/>
+        <v>94</v>
       </c>
       <c r="Z45" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="13"/>
+        <v>34</v>
       </c>
       <c r="AA45" s="5">
         <v>0</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="27"/>
-        <v>45</v>
+        <f t="shared" si="14"/>
+        <v>94</v>
       </c>
       <c r="AC45" s="2">
-        <f t="shared" si="28"/>
-        <v>18</v>
+        <f t="shared" si="15"/>
+        <v>34</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" si="29"/>
-        <v>87.75</v>
+        <f t="shared" si="9"/>
+        <v>177.9</v>
       </c>
       <c r="AE45" s="4"/>
       <c r="AF45">
-        <f t="shared" si="30"/>
-        <v>63</v>
+        <f t="shared" si="10"/>
+        <v>128</v>
       </c>
       <c r="AT45" s="10"/>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>25</v>
@@ -5840,13 +5842,13 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L46">
         <v>2.2000000000000002</v>
       </c>
       <c r="M46">
-        <v>2.6300000000000004E-3</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="N46">
         <v>0.03</v>
@@ -5864,63 +5866,64 @@
         <v>1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T46">
         <v>0</v>
       </c>
-      <c r="U46">
-        <v>0</v>
+      <c r="U46" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V46">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="W46">
-        <v>32</v>
-      </c>
-      <c r="X46" s="9">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="X46" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y46" s="2">
-        <f t="shared" si="1"/>
-        <v>77.5</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="Z46" s="2">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="AA46" s="5">
         <v>0</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="27"/>
-        <v>77.5</v>
+        <f t="shared" si="14"/>
+        <v>45</v>
       </c>
       <c r="AC46" s="2">
-        <f t="shared" si="28"/>
-        <v>32</v>
+        <f t="shared" si="15"/>
+        <v>18</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="29"/>
-        <v>152.625</v>
+        <f t="shared" si="9"/>
+        <v>87.75</v>
       </c>
       <c r="AE46" s="4"/>
       <c r="AF46">
-        <f t="shared" si="30"/>
-        <v>109.5</v>
+        <f t="shared" si="10"/>
+        <v>63</v>
       </c>
       <c r="AT46" s="10"/>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47">
         <v>25</v>
@@ -5944,13 +5947,13 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L47">
         <v>2.2000000000000002</v>
       </c>
       <c r="M47">
-        <v>2.7999999999999998E-4</v>
+        <v>2.6300000000000004E-3</v>
       </c>
       <c r="N47">
         <v>0.03</v>
@@ -5968,63 +5971,63 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="W47">
-        <v>5</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="X47" s="9">
+        <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>77.5</v>
       </c>
       <c r="Z47" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>32</v>
       </c>
       <c r="AA47" s="5">
         <v>0</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>77.5</v>
       </c>
       <c r="AC47" s="2">
-        <f t="shared" si="28"/>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>32</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="29"/>
-        <v>7.5</v>
+        <f t="shared" si="9"/>
+        <v>152.625</v>
       </c>
       <c r="AE47" s="4"/>
       <c r="AF47">
-        <f t="shared" si="30"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>109.5</v>
       </c>
       <c r="AT47" s="10"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48">
         <v>25</v>
@@ -6048,16 +6051,16 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L48">
         <v>2.2000000000000002</v>
       </c>
       <c r="M48">
-        <v>1.9500000000000001E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="N48">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -6072,63 +6075,63 @@
         <v>1</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W48">
-        <v>10</v>
-      </c>
-      <c r="X48" s="9">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="X48" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y48" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z48" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="AA48" s="5">
         <v>0</v>
       </c>
       <c r="AB48" s="2">
-        <f t="shared" si="27"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC48" s="2">
-        <f t="shared" si="28"/>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="AD48" s="4">
-        <f t="shared" si="29"/>
-        <v>35.25</v>
+        <f t="shared" si="9"/>
+        <v>7.5</v>
       </c>
       <c r="AE48" s="4"/>
       <c r="AF48">
-        <f t="shared" si="30"/>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="AT48" s="10"/>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>25</v>
@@ -6152,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L49">
         <v>2.2000000000000002</v>
       </c>
       <c r="M49">
-        <v>2.7999999999999998E-4</v>
+        <v>1.9500000000000001E-3</v>
       </c>
       <c r="N49">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -6176,63 +6179,63 @@
         <v>1</v>
       </c>
       <c r="S49">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="W49">
-        <v>6.1</v>
-      </c>
-      <c r="X49" s="9" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="Z49" s="2">
-        <f t="shared" si="2"/>
-        <v>6.1</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AA49" s="5">
         <v>0</v>
       </c>
       <c r="AB49" s="2">
-        <f t="shared" si="27"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="AC49" s="2">
-        <f t="shared" si="28"/>
-        <v>6.1</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" si="29"/>
-        <v>17.25</v>
+        <f t="shared" si="9"/>
+        <v>35.25</v>
       </c>
       <c r="AE49" s="4"/>
       <c r="AF49">
-        <f t="shared" si="30"/>
-        <v>12.1</v>
+        <f t="shared" si="10"/>
+        <v>25</v>
       </c>
       <c r="AT49" s="10"/>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50">
         <v>25</v>
@@ -6256,16 +6259,16 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="L50">
         <v>2.2000000000000002</v>
       </c>
       <c r="M50">
-        <v>2.6300000000000004E-3</v>
+        <v>2.7999999999999998E-4</v>
       </c>
       <c r="N50">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -6280,63 +6283,63 @@
         <v>1</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T50">
         <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="W50">
-        <v>25</v>
-      </c>
-      <c r="X50" s="9">
-        <v>0</v>
+        <v>6.1</v>
+      </c>
+      <c r="X50" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y50" s="2">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="Z50" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="13"/>
+        <v>6.1</v>
       </c>
       <c r="AA50" s="5">
         <v>0</v>
       </c>
       <c r="AB50" s="2">
-        <f t="shared" si="27"/>
-        <v>66</v>
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="AC50" s="2">
-        <f t="shared" si="28"/>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>6.1</v>
       </c>
       <c r="AD50" s="4">
-        <f t="shared" si="29"/>
-        <v>126.60000000000001</v>
+        <f t="shared" si="9"/>
+        <v>17.25</v>
       </c>
       <c r="AE50" s="4"/>
       <c r="AF50">
-        <f t="shared" si="30"/>
-        <v>91</v>
+        <f t="shared" si="10"/>
+        <v>12.1</v>
       </c>
       <c r="AT50" s="10"/>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51">
         <v>25</v>
@@ -6360,13 +6363,13 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="L51">
         <v>2.2000000000000002</v>
       </c>
       <c r="M51">
-        <v>8.470000000000001E-4</v>
+        <v>2.6300000000000004E-3</v>
       </c>
       <c r="N51">
         <v>0.03</v>
@@ -6384,64 +6387,63 @@
         <v>1</v>
       </c>
       <c r="S51">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="11">
-        <f>7-1</f>
-        <v>6</v>
+      <c r="U51">
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="W51">
-        <v>13.1</v>
-      </c>
-      <c r="X51" s="9" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
       </c>
       <c r="Y51" s="2">
-        <f t="shared" si="1"/>
-        <v>35.152500000000003</v>
+        <f t="shared" si="12"/>
+        <v>66</v>
       </c>
       <c r="Z51" s="2">
-        <f t="shared" si="2"/>
-        <v>13.15375</v>
+        <f t="shared" si="13"/>
+        <v>25</v>
       </c>
       <c r="AA51" s="5">
         <v>0</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" si="27"/>
-        <v>35.152500000000003</v>
+        <f t="shared" si="14"/>
+        <v>66</v>
       </c>
       <c r="AC51" s="2">
-        <f t="shared" si="28"/>
-        <v>13.15375</v>
+        <f t="shared" si="15"/>
+        <v>25</v>
       </c>
       <c r="AD51" s="4">
-        <f t="shared" si="29"/>
-        <v>67.186500000000009</v>
+        <f t="shared" si="9"/>
+        <v>126.60000000000001</v>
       </c>
       <c r="AE51" s="4"/>
       <c r="AF51">
-        <f t="shared" si="30"/>
-        <v>48.306250000000006</v>
+        <f t="shared" si="10"/>
+        <v>91</v>
       </c>
       <c r="AT51" s="10"/>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>25</v>
@@ -6465,16 +6467,16 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L52">
         <v>2.2000000000000002</v>
       </c>
       <c r="M52">
-        <v>1.1066000000000001E-3</v>
+        <v>8.470000000000001E-4</v>
       </c>
       <c r="N52">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -6489,63 +6491,64 @@
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52">
-        <v>0</v>
+      <c r="U52" s="11">
+        <f>7-1</f>
+        <v>6</v>
       </c>
       <c r="V52">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="W52">
-        <v>21.5</v>
-      </c>
-      <c r="X52" s="9">
-        <v>-5.0000000000000001E-3</v>
+        <v>13.1</v>
+      </c>
+      <c r="X52" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" si="1"/>
-        <v>60.695</v>
+        <f t="shared" si="12"/>
+        <v>35.152500000000003</v>
       </c>
       <c r="Z52" s="2">
-        <f t="shared" si="2"/>
-        <v>21.392499999999998</v>
+        <f t="shared" si="13"/>
+        <v>13.15375</v>
       </c>
       <c r="AA52" s="5">
         <v>0</v>
       </c>
       <c r="AB52" s="2">
-        <f t="shared" si="27"/>
-        <v>60.695</v>
+        <f t="shared" si="14"/>
+        <v>35.152500000000003</v>
       </c>
       <c r="AC52" s="2">
-        <f t="shared" si="28"/>
-        <v>21.392499999999998</v>
+        <f t="shared" si="15"/>
+        <v>13.15375</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" si="29"/>
-        <v>114.02700000000002</v>
+        <f t="shared" si="9"/>
+        <v>67.186500000000009</v>
       </c>
       <c r="AE52" s="4"/>
       <c r="AF52">
-        <f t="shared" si="30"/>
-        <v>82.087500000000006</v>
+        <f t="shared" si="10"/>
+        <v>48.306250000000006</v>
       </c>
       <c r="AT52" s="10"/>
     </row>
     <row r="53" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>25</v>
@@ -6569,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L53">
         <v>2.2000000000000002</v>
       </c>
       <c r="M53">
-        <v>5.7000000000000009E-4</v>
+        <v>1.1066000000000001E-3</v>
       </c>
       <c r="N53">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -6593,268 +6596,268 @@
         <v>1</v>
       </c>
       <c r="S53">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
       </c>
       <c r="U53">
-        <v>2</v>
-      </c>
-      <c r="V53" s="2">
-        <v>14</v>
-      </c>
-      <c r="W53" s="2">
-        <v>5</v>
-      </c>
-      <c r="X53" s="9" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>61</v>
+      </c>
+      <c r="W53">
+        <v>21.5</v>
+      </c>
+      <c r="X53" s="9">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="Y53" s="2">
-        <f t="shared" si="1"/>
-        <v>14.1525</v>
+        <f t="shared" si="12"/>
+        <v>60.695</v>
       </c>
       <c r="Z53" s="2">
-        <f t="shared" si="2"/>
-        <v>5.05375</v>
+        <f t="shared" si="13"/>
+        <v>21.392499999999998</v>
       </c>
       <c r="AA53" s="5">
         <v>0</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" si="27"/>
-        <v>14.1525</v>
+        <f t="shared" si="14"/>
+        <v>60.695</v>
       </c>
       <c r="AC53" s="2">
-        <f t="shared" si="28"/>
-        <v>5.05375</v>
+        <f t="shared" si="15"/>
+        <v>21.392499999999998</v>
       </c>
       <c r="AD53" s="4">
-        <f t="shared" si="29"/>
-        <v>26.686500000000002</v>
+        <f t="shared" si="9"/>
+        <v>114.02700000000002</v>
       </c>
       <c r="AE53" s="4"/>
       <c r="AF53">
-        <f t="shared" si="30"/>
-        <v>19.206250000000001</v>
+        <f t="shared" si="10"/>
+        <v>82.087500000000006</v>
       </c>
       <c r="AT53" s="10"/>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B54" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="6">
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54">
         <v>25</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>500</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="1">
         <v>220000</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>1576</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54">
         <v>1870</v>
       </c>
-      <c r="J54" s="6">
-        <v>1</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L54" s="6">
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0.24</v>
+      </c>
+      <c r="L54">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M54" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N54" s="6">
+      <c r="M54">
+        <v>5.7000000000000009E-4</v>
+      </c>
+      <c r="N54">
         <v>0.03</v>
       </c>
-      <c r="O54" s="6">
-        <v>1</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>0</v>
-      </c>
-      <c r="R54" s="6">
-        <v>1</v>
-      </c>
-      <c r="S54" s="6">
-        <v>0</v>
-      </c>
-      <c r="T54" s="6">
-        <v>0</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0</v>
-      </c>
-      <c r="V54" s="8">
-        <v>0</v>
-      </c>
-      <c r="W54" s="8">
-        <v>0</v>
-      </c>
-      <c r="X54" s="16" t="s">
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54" s="2">
+        <v>14</v>
+      </c>
+      <c r="W54" s="2">
+        <v>5</v>
+      </c>
+      <c r="X54" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y54" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>14.1525</v>
       </c>
       <c r="Z54" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>5.05375</v>
       </c>
       <c r="AA54" s="5">
         <v>0</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>14.1525</v>
       </c>
       <c r="AC54" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>5.05375</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>26.686500000000002</v>
       </c>
       <c r="AE54" s="4"/>
       <c r="AF54">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>19.206250000000001</v>
       </c>
       <c r="AT54" s="10"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55">
+        <v>44</v>
+      </c>
+      <c r="D55" s="6">
         <v>25</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="6">
         <v>500</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="7">
         <v>220000</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="6">
         <v>1576</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="6">
         <v>1870</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0.24</v>
-      </c>
-      <c r="L55">
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L55" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M55">
-        <v>5.7000000000000009E-4</v>
-      </c>
-      <c r="N55">
+      <c r="M55" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N55" s="6">
         <v>0.03</v>
       </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>2.9099999999999999E-5</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>2</v>
-      </c>
-      <c r="V55">
-        <v>22</v>
-      </c>
-      <c r="W55">
-        <v>10</v>
-      </c>
-      <c r="X55" s="9" t="s">
+      <c r="O55" s="6">
+        <v>1</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="6">
+        <v>1</v>
+      </c>
+      <c r="S55" s="6">
+        <v>0</v>
+      </c>
+      <c r="T55" s="6">
+        <v>0</v>
+      </c>
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+      <c r="V55" s="8">
+        <v>0</v>
+      </c>
+      <c r="W55" s="8">
+        <v>0</v>
+      </c>
+      <c r="X55" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y55" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z55" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AA55" s="5">
         <v>0</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" ref="AB55:AB58" si="31">Y55*(1-AA55)</f>
-        <v>22</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC55" s="2">
-        <f t="shared" ref="AC55:AC58" si="32">Y55*AA55 + Z55</f>
-        <v>10</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" ref="AD55:AD58" si="33">1.35*Y55+1.5*Z55</f>
-        <v>44.7</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE55" s="4"/>
       <c r="AF55">
-        <f t="shared" ref="AF55:AF58" si="34">AB55+AC55</f>
-        <v>32</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT55" s="10"/>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>25</v>
@@ -6865,7 +6868,7 @@
       <c r="F56">
         <v>500</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>220000</v>
       </c>
       <c r="H56">
@@ -6878,16 +6881,16 @@
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L56">
         <v>2.2000000000000002</v>
       </c>
       <c r="M56">
-        <v>1.9E-3</v>
+        <v>5.7000000000000009E-4</v>
       </c>
       <c r="N56">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -6907,59 +6910,58 @@
       <c r="T56">
         <v>0</v>
       </c>
-      <c r="U56" s="11">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U56">
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>78.5</v>
+        <v>22</v>
       </c>
       <c r="W56">
-        <v>27.5</v>
-      </c>
-      <c r="X56" s="9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="X56" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y56" s="2">
-        <f t="shared" si="1"/>
-        <v>78.5</v>
+        <f t="shared" si="12"/>
+        <v>22</v>
       </c>
       <c r="Z56" s="2">
-        <f t="shared" si="2"/>
-        <v>27.5</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AA56" s="5">
         <v>0</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="31"/>
-        <v>78.5</v>
+        <f t="shared" si="14"/>
+        <v>22</v>
       </c>
       <c r="AC56" s="2">
-        <f t="shared" si="32"/>
-        <v>27.5</v>
+        <f t="shared" si="15"/>
+        <v>10</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="33"/>
-        <v>147.22500000000002</v>
+        <f t="shared" si="9"/>
+        <v>44.7</v>
       </c>
       <c r="AE56" s="4"/>
       <c r="AF56">
-        <f t="shared" si="34"/>
-        <v>106</v>
+        <f t="shared" si="10"/>
+        <v>32</v>
       </c>
       <c r="AT56" s="10"/>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B57" t="s">
         <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D57">
         <v>25</v>
@@ -6983,16 +6985,16 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L57">
         <v>2.2000000000000002</v>
       </c>
       <c r="M57">
-        <v>8.470000000000001E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="N57">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -7013,263 +7015,264 @@
         <v>0</v>
       </c>
       <c r="U57" s="11">
-        <f>7-1</f>
-        <v>6</v>
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V57">
-        <v>35.5</v>
+        <v>78.5</v>
       </c>
       <c r="W57">
-        <v>14</v>
-      </c>
-      <c r="X57" s="9" t="s">
-        <v>52</v>
+        <v>27.5</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0</v>
       </c>
       <c r="Y57" s="2">
-        <f t="shared" si="1"/>
-        <v>35.5</v>
+        <f t="shared" si="12"/>
+        <v>78.5</v>
       </c>
       <c r="Z57" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="13"/>
+        <v>27.5</v>
       </c>
       <c r="AA57" s="5">
         <v>0</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="31"/>
-        <v>35.5</v>
+        <f t="shared" si="14"/>
+        <v>78.5</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" si="32"/>
-        <v>14</v>
+        <f t="shared" si="15"/>
+        <v>27.5</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" si="33"/>
-        <v>68.925000000000011</v>
+        <f t="shared" si="9"/>
+        <v>147.22500000000002</v>
       </c>
       <c r="AE57" s="4"/>
       <c r="AF57">
-        <f t="shared" si="34"/>
-        <v>49.5</v>
+        <f t="shared" si="10"/>
+        <v>106</v>
       </c>
       <c r="AT57" s="10"/>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B58" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="6">
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
         <v>25</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>500</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58">
         <v>220000</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>1576</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58">
         <v>1870</v>
       </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L58" s="6">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0.215</v>
+      </c>
+      <c r="L58">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M58" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="O58" s="6">
-        <v>1</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0</v>
-      </c>
-      <c r="R58" s="6">
-        <v>1</v>
-      </c>
-      <c r="S58" s="6">
-        <v>0</v>
-      </c>
-      <c r="T58" s="6">
-        <v>0</v>
-      </c>
-      <c r="U58" s="6">
-        <v>0</v>
-      </c>
-      <c r="V58" s="8">
-        <v>0</v>
-      </c>
-      <c r="W58" s="8">
-        <v>0</v>
-      </c>
-      <c r="X58" s="16" t="s">
+      <c r="M58">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="N58">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" s="11">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V58">
+        <v>35.5</v>
+      </c>
+      <c r="W58">
+        <v>14</v>
+      </c>
+      <c r="X58" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y58" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>35.5</v>
       </c>
       <c r="Z58" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
       <c r="AA58" s="5">
         <v>0</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>35.5</v>
       </c>
       <c r="AC58" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>14</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>68.925000000000011</v>
       </c>
       <c r="AE58" s="4"/>
       <c r="AF58">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>49.5</v>
       </c>
       <c r="AT58" s="10"/>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
       </c>
-      <c r="C59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59">
+      <c r="D59" s="6">
         <v>25</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="6">
         <v>500</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="7">
         <v>220000</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="6">
         <v>1576</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="6">
         <v>1870</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>0.215</v>
-      </c>
-      <c r="L59">
+      <c r="J59" s="6">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M59">
-        <v>8.5000000000000006E-4</v>
-      </c>
-      <c r="N59">
+      <c r="M59" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N59" s="6">
         <v>0.03</v>
       </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>21</v>
-      </c>
-      <c r="W59">
-        <v>7.8</v>
-      </c>
-      <c r="X59" s="9" t="s">
+      <c r="O59" s="6">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+      <c r="R59" s="6">
+        <v>1</v>
+      </c>
+      <c r="S59" s="6">
+        <v>0</v>
+      </c>
+      <c r="T59" s="6">
+        <v>0</v>
+      </c>
+      <c r="U59" s="6">
+        <v>0</v>
+      </c>
+      <c r="V59" s="8">
+        <v>0</v>
+      </c>
+      <c r="W59" s="8">
+        <v>0</v>
+      </c>
+      <c r="X59" s="16" t="s">
         <v>52</v>
       </c>
       <c r="Y59" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Z59" s="2">
-        <f t="shared" si="2"/>
-        <v>7.8</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AA59" s="5">
         <v>0</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" ref="AB59:AB62" si="35">Y59*(1-AA59)</f>
-        <v>21</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" ref="AC59:AC62" si="36">Y59*AA59 + Z59</f>
-        <v>7.8</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" ref="AD59:AD62" si="37">1.35*Y59+1.5*Z59</f>
-        <v>40.049999999999997</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="AE59" s="4"/>
       <c r="AF59">
-        <f t="shared" ref="AF59:AF62" si="38">AB59+AC59</f>
-        <v>28.8</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AT59" s="10"/>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60">
         <v>25</v>
@@ -7293,16 +7296,16 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="L60">
         <v>2.2000000000000002</v>
       </c>
       <c r="M60">
-        <v>1.1100000000000001E-3</v>
+        <v>8.5000000000000006E-4</v>
       </c>
       <c r="N60">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -7326,54 +7329,54 @@
         <v>0</v>
       </c>
       <c r="V60">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="W60">
-        <v>11</v>
-      </c>
-      <c r="X60" s="9">
-        <v>0</v>
+        <v>7.8</v>
+      </c>
+      <c r="X60" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y60" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
+        <f t="shared" si="12"/>
+        <v>21</v>
       </c>
       <c r="Z60" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="13"/>
+        <v>7.8</v>
       </c>
       <c r="AA60" s="5">
         <v>0</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="35"/>
-        <v>27</v>
+        <f t="shared" si="14"/>
+        <v>21</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="36"/>
-        <v>11</v>
+        <f t="shared" si="15"/>
+        <v>7.8</v>
       </c>
       <c r="AD60" s="4">
-        <f t="shared" si="37"/>
-        <v>52.95</v>
+        <f t="shared" si="9"/>
+        <v>40.049999999999997</v>
       </c>
       <c r="AE60" s="4"/>
       <c r="AF60">
-        <f t="shared" si="38"/>
-        <v>38</v>
+        <f t="shared" si="10"/>
+        <v>28.8</v>
       </c>
       <c r="AT60" s="10"/>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D61">
         <v>25</v>
@@ -7397,16 +7400,16 @@
         <v>1</v>
       </c>
       <c r="K61">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="L61">
         <v>2.2000000000000002</v>
       </c>
       <c r="M61">
-        <v>5.7000000000000009E-4</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="N61">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -7421,63 +7424,63 @@
         <v>1</v>
       </c>
       <c r="S61">
-        <v>2.9099999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="T61">
         <v>0</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>23.5</v>
+        <v>27</v>
       </c>
       <c r="W61">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="X61" s="9" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="X61" s="9">
+        <v>0</v>
       </c>
       <c r="Y61" s="2">
-        <f t="shared" si="1"/>
-        <v>23.5</v>
+        <f t="shared" si="12"/>
+        <v>27</v>
       </c>
       <c r="Z61" s="2">
-        <f t="shared" si="2"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="AA61" s="5">
         <v>0</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="35"/>
-        <v>23.5</v>
+        <f t="shared" si="14"/>
+        <v>27</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="36"/>
-        <v>9.6999999999999993</v>
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
       <c r="AD61" s="4">
-        <f t="shared" si="37"/>
-        <v>46.274999999999999</v>
+        <f t="shared" si="9"/>
+        <v>52.95</v>
       </c>
       <c r="AE61" s="4"/>
       <c r="AF61">
-        <f t="shared" si="38"/>
-        <v>33.200000000000003</v>
+        <f t="shared" si="10"/>
+        <v>38</v>
       </c>
       <c r="AT61" s="10"/>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>25</v>
@@ -7501,16 +7504,16 @@
         <v>1</v>
       </c>
       <c r="K62">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="L62">
         <v>2.2000000000000002</v>
       </c>
       <c r="M62">
-        <v>1.6941E-3</v>
+        <v>5.7000000000000009E-4</v>
       </c>
       <c r="N62">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -7530,59 +7533,58 @@
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62" s="11">
-        <f>5-1</f>
-        <v>4</v>
+      <c r="U62">
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>75.5</v>
+        <v>23.5</v>
       </c>
       <c r="W62">
-        <v>26</v>
-      </c>
-      <c r="X62" s="9">
-        <v>0</v>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="X62" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="Y62" s="2">
-        <f t="shared" si="1"/>
-        <v>75.5</v>
+        <f t="shared" si="12"/>
+        <v>23.5</v>
       </c>
       <c r="Z62" s="2">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="13"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AA62" s="5">
         <v>0</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="35"/>
-        <v>75.5</v>
+        <f t="shared" si="14"/>
+        <v>23.5</v>
       </c>
       <c r="AC62" s="2">
-        <f t="shared" si="36"/>
-        <v>26</v>
+        <f t="shared" si="15"/>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AD62" s="4">
-        <f t="shared" si="37"/>
-        <v>140.92500000000001</v>
+        <f t="shared" si="9"/>
+        <v>46.274999999999999</v>
       </c>
       <c r="AE62" s="4"/>
       <c r="AF62">
-        <f t="shared" si="38"/>
-        <v>101.5</v>
+        <f t="shared" si="10"/>
+        <v>33.200000000000003</v>
       </c>
       <c r="AT62" s="10"/>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D63">
         <v>25</v>
@@ -7606,16 +7608,16 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>0.215</v>
+        <v>0.23</v>
       </c>
       <c r="L63">
         <v>2.2000000000000002</v>
       </c>
       <c r="M63">
-        <v>8.5000000000000006E-4</v>
+        <v>1.6941E-3</v>
       </c>
       <c r="N63">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -7636,152 +7638,256 @@
         <v>0</v>
       </c>
       <c r="U63" s="11">
-        <f>7-1</f>
-        <v>6</v>
+        <f>5-1</f>
+        <v>4</v>
       </c>
       <c r="V63">
-        <v>32.5</v>
+        <v>75.5</v>
       </c>
       <c r="W63">
-        <v>12.7</v>
-      </c>
-      <c r="X63" s="9" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="X63" s="9">
+        <v>0</v>
       </c>
       <c r="Y63" s="2">
-        <f t="shared" si="1"/>
-        <v>32.5</v>
+        <f t="shared" si="12"/>
+        <v>75.5</v>
       </c>
       <c r="Z63" s="2">
-        <f t="shared" si="2"/>
-        <v>12.7</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="AA63" s="5">
         <v>0</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" ref="AB63:AB64" si="39">Y63*(1-AA63)</f>
-        <v>32.5</v>
+        <f t="shared" si="14"/>
+        <v>75.5</v>
       </c>
       <c r="AC63" s="2">
-        <f t="shared" ref="AC63:AC64" si="40">Y63*AA63 + Z63</f>
-        <v>12.7</v>
+        <f t="shared" si="15"/>
+        <v>26</v>
       </c>
       <c r="AD63" s="4">
-        <f t="shared" ref="AD63:AD64" si="41">1.35*Y63+1.5*Z63</f>
-        <v>62.924999999999997</v>
+        <f t="shared" si="9"/>
+        <v>140.92500000000001</v>
       </c>
       <c r="AE63" s="4"/>
       <c r="AF63">
-        <f t="shared" ref="AF63:AF64" si="42">AB63+AC63</f>
-        <v>45.2</v>
+        <f t="shared" si="10"/>
+        <v>101.5</v>
       </c>
       <c r="AT63" s="10"/>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64">
-        <f>IF(B64=B63,A63,A63+1)</f>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="6">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
         <v>25</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>500</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64">
         <v>220000</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64">
         <v>1576</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64">
         <v>1870</v>
       </c>
-      <c r="J64" s="6">
-        <v>1</v>
-      </c>
-      <c r="K64" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="L64" s="6">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0.215</v>
+      </c>
+      <c r="L64">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M64" s="6">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N64" s="6">
+      <c r="M64">
+        <v>8.5000000000000006E-4</v>
+      </c>
+      <c r="N64">
         <v>0.03</v>
       </c>
-      <c r="O64" s="6">
-        <v>1</v>
-      </c>
-      <c r="P64" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="6">
-        <v>0</v>
-      </c>
-      <c r="R64" s="6">
-        <v>1</v>
-      </c>
-      <c r="S64" s="6">
-        <v>0</v>
-      </c>
-      <c r="T64" s="6">
-        <v>0</v>
-      </c>
-      <c r="U64" s="6">
-        <v>0</v>
-      </c>
-      <c r="V64" s="8">
-        <v>0</v>
-      </c>
-      <c r="W64" s="8">
-        <v>0</v>
-      </c>
-      <c r="X64" s="6" t="s">
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64" s="11">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="V64">
+        <v>32.5</v>
+      </c>
+      <c r="W64">
+        <v>12.7</v>
+      </c>
+      <c r="X64" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Y64" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>32.5</v>
       </c>
       <c r="Z64" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>12.7</v>
       </c>
       <c r="AA64" s="5">
         <v>0</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>32.5</v>
       </c>
       <c r="AC64" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>12.7</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" si="41"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>62.924999999999997</v>
       </c>
       <c r="AE64" s="4"/>
       <c r="AF64">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>45.2</v>
       </c>
       <c r="AT64" s="10"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f>IF(B65=B64,A64,A64+1)</f>
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="6">
+        <v>25</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6">
+        <v>500</v>
+      </c>
+      <c r="G65" s="7">
+        <v>220000</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1576</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L65" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M65" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="O65" s="6">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+      <c r="R65" s="6">
+        <v>1</v>
+      </c>
+      <c r="S65" s="6">
+        <v>0</v>
+      </c>
+      <c r="T65" s="6">
+        <v>0</v>
+      </c>
+      <c r="U65" s="6">
+        <v>0</v>
+      </c>
+      <c r="V65" s="8">
+        <v>0</v>
+      </c>
+      <c r="W65" s="8">
+        <v>0</v>
+      </c>
+      <c r="X65" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="4"/>
+      <c r="AF65">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="X3:X4 X7:X12 X14:X17 X19:X29 X31:X41 X43:X53 X55:X57 X59:X63">
+  <conditionalFormatting sqref="X3:X4 X7:X64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A3="Travée"</formula>
     </cfRule>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913FA04-A084-4CF7-9A34-39FDE27B13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5913FA04-A084-4CF7-9A34-39FDE27B13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8736FEE-93F2-4A65-8E5A-2DB80B4493DE}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -1116,17 +1116,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="42" width="11.453125" customWidth="1"/>
-    <col min="43" max="43" width="11.453125" collapsed="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="42" width="11.42578125" customWidth="1"/>
+    <col min="43" max="43" width="11.42578125" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IFERROR(IF(B2=B1,A1,A1+1),1)</f>
         <v>1</v>
@@ -1328,9 +1328,9 @@
       </c>
       <c r="AT2" s="10"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A63" si="0">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A5" si="0">IF(B3=B2,A2,A2+1)</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1403,11 +1403,11 @@
         <v>-5.5E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y64" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
+        <f t="shared" ref="Y3:Y4" si="1">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
         <v>53.865000000000002</v>
       </c>
       <c r="Z3" s="2">
-        <f t="shared" ref="Z3:Z64" si="2">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
+        <f t="shared" ref="Z3:Z4" si="2">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
         <v>16.537500000000001</v>
       </c>
       <c r="AA3" s="12">
@@ -1419,7 +1419,7 @@
         <v>53.865000000000002</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC6" si="4">Y3*AA3 + Z3</f>
+        <f t="shared" ref="AC3:AC5" si="4">Y3*AA3 + Z3</f>
         <v>16.537500000000001</v>
       </c>
       <c r="AD3" s="4">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="AT3" s="10"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="AT4" s="10"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="AT5" s="10"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>IF(B6=B5,A5,A5+1)</f>
         <v>1</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="AT6" s="10"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(B7=B6,A6,A6+1)</f>
         <v>1</v>
@@ -1826,11 +1826,11 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" ref="AB7:AB19" si="7">Y7*(1-AA7)</f>
+        <f t="shared" ref="AB7:AB15" si="7">Y7*(1-AA7)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC19" si="8">Y7*AA7 + Z7</f>
+        <f t="shared" ref="AC7:AC15" si="8">Y7*AA7 + Z7</f>
         <v>0</v>
       </c>
       <c r="AD7" s="4">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="AT7" s="10"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8:A64" si="11">IF(B8=B7,A7,A7+1)</f>
         <v>2</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="AT8" s="10"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AT9" s="10"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="AT10" s="10"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="AT11" s="10"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AT12" s="10"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="AT13" s="10"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="AT14" s="10"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="AT15" s="10"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AT16" s="10"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="AT17" s="10"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AT18" s="10"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="AT19" s="10"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="AT20" s="10"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="AT21" s="10"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="AT22" s="10"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="AT23" s="10"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="AT24" s="10"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="AT25" s="10"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="AT26" s="10"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AT27" s="10"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="AT28" s="10"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="AT29" s="10"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="AT30" s="10"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="11"/>
         <v>3</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="AT31" s="10"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="AT32" s="10"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="AT33" s="10"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="AT34" s="10"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="AT35" s="10"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="AT36" s="10"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="AT37" s="10"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="AT38" s="10"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="AT39" s="10"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="AT40" s="10"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="AT41" s="10"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="AT42" s="10"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="AT43" s="10"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="AT44" s="10"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="AT45" s="10"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="AT46" s="10"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="AT47" s="10"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="AT48" s="10"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="AT49" s="10"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="AT50" s="10"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="AT51" s="10"/>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="AT52" s="10"/>
     </row>
-    <row r="53" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:46" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="AT53" s="10"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="AT54" s="10"/>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="AT55" s="10"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="AT56" s="10"/>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="AT57" s="10"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -7162,7 +7162,7 @@
       </c>
       <c r="AT58" s="10"/>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="AT59" s="10"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="AT60" s="10"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="AT61" s="10"/>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="AT62" s="10"/>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="AT63" s="10"/>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="AT64" s="10"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>IF(B65=B64,A64,A64+1)</f>
         <v>8</v>

--- a/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/PH2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5913FA04-A084-4CF7-9A34-39FDE27B13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8736FEE-93F2-4A65-8E5A-2DB80B4493DE}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5913FA04-A084-4CF7-9A34-39FDE27B13EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AFC5E74-27C6-4489-B5A9-950AD793DF85}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -795,6 +795,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1116,7 +1120,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1423,16 @@
         <v>53.865000000000002</v>
       </c>
       <c r="AC3" s="2">
-        <f t="shared" ref="AC3:AC5" si="4">Y3*AA3 + Z3</f>
+        <f>Y3*AA3 + Z3</f>
         <v>16.537500000000001</v>
       </c>
       <c r="AD3" s="4">
-        <f t="shared" ref="AD3:AD6" si="5">1.35*Y3+1.5*Z3</f>
+        <f>1.35*Y3+1.5*Z3</f>
         <v>97.524000000000015</v>
       </c>
       <c r="AE3" s="4"/>
-      <c r="AF3">
-        <f t="shared" ref="AF3:AF6" si="6">AB3+AC3</f>
+      <c r="AF3" s="2">
+        <f>AB3+AC3</f>
         <v>70.402500000000003</v>
       </c>
       <c r="AT3" s="10"/>
@@ -1525,16 +1529,16 @@
         <v>20.767499999999998</v>
       </c>
       <c r="AC4" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AC3:AC5" si="4">Y4*AA4 + Z4</f>
         <v>6.8812499999999996</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AD3:AD6" si="5">1.35*Y4+1.5*Z4</f>
         <v>38.357999999999997</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AF3:AF6" si="6">AB4+AC4</f>
         <v>27.64875</v>
       </c>
       <c r="AT4" s="10"/>
